--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam2-Itga6.xlsx
@@ -546,10 +546,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I2">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J2">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N2">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O2">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P2">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q2">
-        <v>6.179336504431222</v>
+        <v>5.128318705402222</v>
       </c>
       <c r="R2">
-        <v>55.614028539881</v>
+        <v>46.15486834862</v>
       </c>
       <c r="S2">
-        <v>0.1574568365165279</v>
+        <v>0.3728647421313979</v>
       </c>
       <c r="T2">
-        <v>0.1574568365165278</v>
+        <v>0.3728647421313979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I3">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J3">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q3">
         <v>0.02744810291977778</v>
@@ -638,10 +638,10 @@
         <v>0.247032926278</v>
       </c>
       <c r="S3">
-        <v>0.0006994102766581878</v>
+        <v>0.00199566961515047</v>
       </c>
       <c r="T3">
-        <v>0.0006994102766581878</v>
+        <v>0.00199566961515047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I4">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J4">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N4">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q4">
-        <v>3.666972453940888</v>
+        <v>1.614710491738889</v>
       </c>
       <c r="R4">
-        <v>33.002752085468</v>
+        <v>14.53239442565</v>
       </c>
       <c r="S4">
-        <v>0.09343881528004395</v>
+        <v>0.1174007790281946</v>
       </c>
       <c r="T4">
-        <v>0.09343881528004395</v>
+        <v>0.1174007790281946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I5">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J5">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N5">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O5">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P5">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q5">
-        <v>0.02941485490511111</v>
+        <v>0.03158966093733333</v>
       </c>
       <c r="R5">
-        <v>0.264733694146</v>
+        <v>0.284306948436</v>
       </c>
       <c r="S5">
-        <v>0.0007495254541697405</v>
+        <v>0.002296789933708549</v>
       </c>
       <c r="T5">
-        <v>0.0007495254541697404</v>
+        <v>0.00229678993370855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I6">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J6">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N6">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q6">
-        <v>2.144367474969556</v>
+        <v>1.606545744489</v>
       </c>
       <c r="R6">
-        <v>19.299307274726</v>
+        <v>14.458911700401</v>
       </c>
       <c r="S6">
-        <v>0.05464103123296723</v>
+        <v>0.1168071446320541</v>
       </c>
       <c r="T6">
-        <v>0.05464103123296721</v>
+        <v>0.1168071446320541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H7">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I7">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J7">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N7">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O7">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P7">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q7">
-        <v>13.94973836684089</v>
+        <v>3.259988858831111</v>
       </c>
       <c r="R7">
-        <v>125.547645301568</v>
+        <v>29.33989972948</v>
       </c>
       <c r="S7">
-        <v>0.3554559088829194</v>
+        <v>0.2370240570108944</v>
       </c>
       <c r="T7">
-        <v>0.3554559088829194</v>
+        <v>0.2370240570108944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H8">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I8">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J8">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q8">
-        <v>0.06196358688711111</v>
+        <v>0.01744831295688889</v>
       </c>
       <c r="R8">
-        <v>0.557672281984</v>
+        <v>0.157034816612</v>
       </c>
       <c r="S8">
-        <v>0.001578905819980032</v>
+        <v>0.001268614741990385</v>
       </c>
       <c r="T8">
-        <v>0.001578905819980032</v>
+        <v>0.001268614741990385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H9">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I9">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J9">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N9">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q9">
-        <v>8.278122787811554</v>
+        <v>1.026445218344445</v>
       </c>
       <c r="R9">
-        <v>74.503105090304</v>
+        <v>9.2380069651</v>
       </c>
       <c r="S9">
-        <v>0.2109364048275219</v>
+        <v>0.07462976730499239</v>
       </c>
       <c r="T9">
-        <v>0.2109364048275219</v>
+        <v>0.07462976730499239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H10">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I10">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J10">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N10">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O10">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P10">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q10">
-        <v>0.06640349327644444</v>
+        <v>0.02008103408266667</v>
       </c>
       <c r="R10">
-        <v>0.5976314394880001</v>
+        <v>0.180729306744</v>
       </c>
       <c r="S10">
-        <v>0.001692039910345984</v>
+        <v>0.00146003203488073</v>
       </c>
       <c r="T10">
-        <v>0.001692039910345984</v>
+        <v>0.00146003203488073</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H11">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I11">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J11">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N11">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q11">
-        <v>4.840870086414222</v>
+        <v>1.021255021206</v>
       </c>
       <c r="R11">
-        <v>43.567830777728</v>
+        <v>9.191295190854001</v>
       </c>
       <c r="S11">
-        <v>0.123351121798866</v>
+        <v>0.07425240356673669</v>
       </c>
       <c r="T11">
-        <v>0.1233511217988659</v>
+        <v>0.07425240356673669</v>
       </c>
     </row>
   </sheetData>
